--- a/Data/specPowerOriginalDataTemp.xlsx
+++ b/Data/specPowerOriginalDataTemp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="245">
   <si>
     <t xml:space="preserve">Hardware Vendor</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve"># Cores Per Chip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Threads Per Core</t>
   </si>
   <si>
     <t xml:space="preserve">Processor</t>
@@ -761,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -782,6 +785,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -826,8 +834,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -852,10 +864,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP242"/>
+  <dimension ref="A1:AQ242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM1" activeCellId="0" sqref="AM1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A148" activeCellId="0" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -875,11 +887,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="72.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="75.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="24.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="43" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="72.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="75.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="24.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="44" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,16 +1022,19 @@
       <c r="AP1" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>20908</v>
@@ -1125,8 +1141,8 @@
       <c r="AL2" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM2" s="0" t="s">
-        <v>44</v>
+      <c r="AM2" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN2" s="0" t="s">
         <v>45</v>
@@ -1134,19 +1150,22 @@
       <c r="AO2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="0" t="n">
         <v>650</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>21168</v>
@@ -1253,8 +1272,8 @@
       <c r="AL3" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM3" s="0" t="s">
-        <v>44</v>
+      <c r="AM3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN3" s="0" t="s">
         <v>45</v>
@@ -1262,19 +1281,22 @@
       <c r="AO3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="AP3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
         <v>650</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>20214</v>
@@ -1381,28 +1403,31 @@
       <c r="AL4" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM4" s="0" t="s">
-        <v>44</v>
+      <c r="AM4" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN4" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AO4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AP4" s="0" t="n">
+      <c r="AP4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>20350</v>
@@ -1509,28 +1534,31 @@
       <c r="AL5" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM5" s="0" t="s">
-        <v>44</v>
+      <c r="AM5" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN5" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AO5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AP5" s="0" t="n">
+      <c r="AP5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>14274</v>
@@ -1637,8 +1665,8 @@
       <c r="AL6" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM6" s="0" t="s">
-        <v>50</v>
+      <c r="AM6" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN6" s="0" t="s">
         <v>51</v>
@@ -1646,19 +1674,22 @@
       <c r="AO6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="AP6" s="0" t="n">
+      <c r="AP6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
         <v>850</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>14066</v>
@@ -1765,8 +1796,8 @@
       <c r="AL7" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM7" s="0" t="s">
-        <v>50</v>
+      <c r="AM7" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN7" s="0" t="s">
         <v>51</v>
@@ -1774,19 +1805,22 @@
       <c r="AO7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="AP7" s="0" t="n">
+      <c r="AP7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
         <v>850</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>12727</v>
@@ -1893,28 +1927,31 @@
       <c r="AL8" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM8" s="0" t="s">
-        <v>53</v>
+      <c r="AM8" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AO8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="AP8" s="0" t="n">
+      <c r="AP8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
         <v>850</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>11935</v>
@@ -2021,28 +2058,31 @@
       <c r="AL9" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM9" s="0" t="s">
-        <v>54</v>
+      <c r="AM9" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN9" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AO9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP9" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>9472</v>
@@ -2149,8 +2189,8 @@
       <c r="AL10" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM10" s="0" t="s">
-        <v>57</v>
+      <c r="AM10" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN10" s="0" t="s">
         <v>58</v>
@@ -2158,19 +2198,22 @@
       <c r="AO10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AP10" s="0" t="n">
+      <c r="AP10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>9288</v>
@@ -2277,28 +2320,31 @@
       <c r="AL11" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM11" s="0" t="s">
-        <v>57</v>
+      <c r="AM11" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="AO11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP11" s="0" t="n">
+      <c r="AQ11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>10062</v>
@@ -2405,28 +2451,31 @@
       <c r="AL12" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM12" s="0" t="s">
-        <v>62</v>
+      <c r="AM12" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN12" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AO12" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP12" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -2533,28 +2582,31 @@
       <c r="AL13" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM13" s="0" t="s">
-        <v>63</v>
+      <c r="AM13" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN13" s="0" t="s">
         <v>64</v>
       </c>
       <c r="AO13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP13" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8913</v>
@@ -2661,8 +2713,8 @@
       <c r="AL14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AM14" s="0" t="s">
-        <v>65</v>
+      <c r="AM14" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN14" s="0" t="s">
         <v>66</v>
@@ -2670,19 +2722,22 @@
       <c r="AO14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="AP14" s="0" t="n">
+      <c r="AP14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ14" s="0" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>9749</v>
@@ -2789,28 +2844,31 @@
       <c r="AL15" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM15" s="0" t="s">
-        <v>57</v>
+      <c r="AM15" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN15" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AO15" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="AP15" s="0" t="n">
+      <c r="AP15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>11157</v>
@@ -2917,28 +2975,31 @@
       <c r="AL16" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM16" s="0" t="s">
-        <v>62</v>
+      <c r="AM16" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN16" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AO16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP16" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ16" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>11542</v>
@@ -3045,28 +3106,31 @@
       <c r="AL17" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM17" s="0" t="s">
+      <c r="AM17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP17" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="AN17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO17" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP17" s="0" t="n">
+      <c r="AQ17" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>20184</v>
@@ -3173,28 +3237,31 @@
       <c r="AL18" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM18" s="0" t="s">
-        <v>71</v>
+      <c r="AM18" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN18" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AO18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP18" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ18" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>10206</v>
@@ -3301,28 +3368,31 @@
       <c r="AL19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM19" s="0" t="s">
-        <v>57</v>
+      <c r="AM19" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN19" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AO19" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="AP19" s="0" t="n">
+      <c r="AP19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>11423</v>
@@ -3429,28 +3499,31 @@
       <c r="AL20" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM20" s="0" t="s">
-        <v>62</v>
+      <c r="AM20" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN20" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AO20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP20" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ20" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>10802</v>
@@ -3557,28 +3630,31 @@
       <c r="AL21" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM21" s="0" t="s">
-        <v>62</v>
+      <c r="AM21" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN21" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AO21" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP21" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ21" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>11790</v>
@@ -3685,28 +3761,31 @@
       <c r="AL22" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM22" s="0" t="s">
+      <c r="AM22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP22" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="AN22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO22" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP22" s="0" t="n">
+      <c r="AQ22" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>12831</v>
@@ -3813,28 +3892,31 @@
       <c r="AL23" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM23" s="0" t="s">
-        <v>73</v>
+      <c r="AM23" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN23" s="0" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="AO23" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP23" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ23" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>11867</v>
@@ -3941,28 +4023,31 @@
       <c r="AL24" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM24" s="0" t="s">
-        <v>75</v>
+      <c r="AM24" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN24" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AO24" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP24" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ24" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>11064</v>
@@ -4069,28 +4154,31 @@
       <c r="AL25" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM25" s="0" t="s">
-        <v>77</v>
+      <c r="AM25" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN25" s="0" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="AO25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP25" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ25" s="0" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>16501</v>
@@ -4197,28 +4285,31 @@
       <c r="AL26" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM26" s="0" t="s">
-        <v>79</v>
+      <c r="AM26" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN26" s="0" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AO26" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP26" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ26" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>20910</v>
@@ -4325,28 +4416,31 @@
       <c r="AL27" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM27" s="0" t="s">
-        <v>71</v>
+      <c r="AM27" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN27" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AO27" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP27" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ27" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>11064</v>
@@ -4453,28 +4547,31 @@
       <c r="AL28" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM28" s="0" t="s">
-        <v>82</v>
+      <c r="AM28" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN28" s="0" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="AO28" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP28" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP28" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ28" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>11962</v>
@@ -4581,28 +4678,31 @@
       <c r="AL29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM29" s="0" t="s">
-        <v>70</v>
+      <c r="AM29" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN29" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AO29" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="AP29" s="0" t="n">
+      <c r="AP29" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ29" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>11872</v>
@@ -4709,28 +4809,31 @@
       <c r="AL30" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM30" s="0" t="s">
-        <v>70</v>
+      <c r="AM30" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN30" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AO30" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="AP30" s="0" t="n">
+      <c r="AP30" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ30" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>11958</v>
@@ -4837,28 +4940,31 @@
       <c r="AL31" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM31" s="0" t="s">
-        <v>70</v>
+      <c r="AM31" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN31" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AO31" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP31" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP31" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ31" s="0" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>10103</v>
@@ -4965,28 +5071,31 @@
       <c r="AL32" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM32" s="0" t="s">
-        <v>57</v>
+      <c r="AM32" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN32" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AO32" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="AP32" s="0" t="n">
+      <c r="AP32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ32" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>11537</v>
@@ -5093,28 +5202,31 @@
       <c r="AL33" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM33" s="0" t="s">
-        <v>70</v>
+      <c r="AM33" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN33" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="AO33" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP33" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP33" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ33" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>10619</v>
@@ -5221,28 +5333,31 @@
       <c r="AL34" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="AM34" s="0" t="s">
-        <v>91</v>
+      <c r="AM34" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN34" s="0" t="s">
         <v>92</v>
       </c>
       <c r="AO34" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP34" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP34" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>17278</v>
@@ -5349,8 +5464,8 @@
       <c r="AL35" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM35" s="0" t="s">
-        <v>93</v>
+      <c r="AM35" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN35" s="0" t="s">
         <v>94</v>
@@ -5358,19 +5473,22 @@
       <c r="AO35" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="AP35" s="0" t="n">
+      <c r="AP35" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ35" s="0" t="n">
         <v>650</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>6916</v>
@@ -5477,8 +5595,8 @@
       <c r="AL36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM36" s="0" t="s">
-        <v>96</v>
+      <c r="AM36" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN36" s="0" t="s">
         <v>97</v>
@@ -5486,19 +5604,22 @@
       <c r="AO36" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="AP36" s="0" t="n">
+      <c r="AP36" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ36" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>7809</v>
@@ -5605,28 +5726,31 @@
       <c r="AL37" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM37" s="0" t="s">
-        <v>99</v>
+      <c r="AM37" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN37" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AO37" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP37" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ37" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>9281</v>
@@ -5733,28 +5857,31 @@
       <c r="AL38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM38" s="0" t="s">
-        <v>101</v>
+      <c r="AM38" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN38" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AO38" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP38" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP38" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ38" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>8924</v>
@@ -5861,28 +5988,31 @@
       <c r="AL39" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AM39" s="0" t="s">
-        <v>65</v>
+      <c r="AM39" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN39" s="0" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="AO39" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP39" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP39" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ39" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>11660</v>
@@ -5989,28 +6119,31 @@
       <c r="AL40" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AM40" s="0" t="s">
-        <v>104</v>
+      <c r="AM40" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN40" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AO40" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP40" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP40" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ40" s="0" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>10765</v>
@@ -6117,28 +6250,31 @@
       <c r="AL41" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM41" s="0" t="s">
-        <v>106</v>
+      <c r="AM41" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN41" s="0" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AO41" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP41" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP41" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ41" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>9811</v>
@@ -6245,28 +6381,31 @@
       <c r="AL42" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM42" s="0" t="s">
-        <v>108</v>
+      <c r="AM42" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN42" s="0" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AO42" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP42" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AP42" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ42" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>10950</v>
@@ -6373,28 +6512,31 @@
       <c r="AL43" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM43" s="0" t="s">
+      <c r="AM43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO43" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP43" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="AN43" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO43" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP43" s="0" t="n">
+      <c r="AQ43" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>13006</v>
@@ -6501,28 +6643,31 @@
       <c r="AL44" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM44" s="0" t="s">
-        <v>111</v>
+      <c r="AM44" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN44" s="0" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AO44" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP44" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ44" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>11638</v>
@@ -6629,28 +6774,31 @@
       <c r="AL45" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM45" s="0" t="s">
+      <c r="AM45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN45" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO45" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP45" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="AN45" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO45" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP45" s="0" t="n">
+      <c r="AQ45" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>12842</v>
@@ -6757,28 +6905,31 @@
       <c r="AL46" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM46" s="0" t="s">
-        <v>54</v>
+      <c r="AM46" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN46" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AO46" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP46" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP46" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ46" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>13502</v>
@@ -6885,28 +7036,31 @@
       <c r="AL47" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM47" s="0" t="s">
-        <v>50</v>
+      <c r="AM47" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN47" s="0" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="AO47" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP47" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP47" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ47" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>11991</v>
@@ -7013,28 +7167,31 @@
       <c r="AL48" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM48" s="0" t="s">
-        <v>111</v>
+      <c r="AM48" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN48" s="0" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AO48" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP48" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP48" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ48" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>10699</v>
@@ -7141,28 +7298,31 @@
       <c r="AL49" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM49" s="0" t="s">
-        <v>108</v>
+      <c r="AM49" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN49" s="0" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AO49" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP49" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AP49" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ49" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>12079</v>
@@ -7269,28 +7429,31 @@
       <c r="AL50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM50" s="0" t="s">
+      <c r="AM50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN50" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO50" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP50" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="AN50" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO50" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP50" s="0" t="n">
+      <c r="AQ50" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>12828</v>
@@ -7397,28 +7560,31 @@
       <c r="AL51" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM51" s="0" t="s">
-        <v>54</v>
+      <c r="AM51" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN51" s="0" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="AO51" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="AP51" s="0" t="n">
+      <c r="AP51" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ51" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>12008</v>
@@ -7525,28 +7691,31 @@
       <c r="AL52" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM52" s="0" t="s">
-        <v>54</v>
+      <c r="AM52" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN52" s="0" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="AO52" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="AP52" s="0" t="n">
+      <c r="AP52" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ52" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>11886</v>
@@ -7653,28 +7822,31 @@
       <c r="AL53" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM53" s="0" t="s">
-        <v>54</v>
+      <c r="AM53" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN53" s="0" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="AO53" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="AP53" s="0" t="n">
+      <c r="AP53" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ53" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>12979</v>
@@ -7781,28 +7953,31 @@
       <c r="AL54" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM54" s="0" t="s">
-        <v>50</v>
+      <c r="AM54" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN54" s="0" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="AO54" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="AP54" s="0" t="n">
+      <c r="AP54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ54" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>11444</v>
@@ -7909,28 +8084,31 @@
       <c r="AL55" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM55" s="0" t="s">
-        <v>111</v>
+      <c r="AM55" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN55" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AO55" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP55" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP55" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ55" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>7535</v>
@@ -8037,28 +8215,31 @@
       <c r="AL56" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM56" s="0" t="s">
-        <v>96</v>
+      <c r="AM56" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN56" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AO56" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP56" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ56" s="0" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8944</v>
@@ -8165,28 +8346,31 @@
       <c r="AL57" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM57" s="0" t="s">
-        <v>99</v>
+      <c r="AM57" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN57" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AO57" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP57" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP57" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ57" s="0" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>10427</v>
@@ -8293,28 +8477,31 @@
       <c r="AL58" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM58" s="0" t="s">
-        <v>101</v>
+      <c r="AM58" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN58" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AO58" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP58" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP58" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ58" s="0" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>11089</v>
@@ -8421,28 +8608,31 @@
       <c r="AL59" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AM59" s="0" t="s">
-        <v>65</v>
+      <c r="AM59" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN59" s="0" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="AO59" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP59" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP59" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ59" s="0" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>9435</v>
@@ -8549,28 +8739,31 @@
       <c r="AL60" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AM60" s="0" t="s">
-        <v>65</v>
+      <c r="AM60" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN60" s="0" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="AO60" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP60" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP60" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ60" s="0" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>12364</v>
@@ -8677,28 +8870,31 @@
       <c r="AL61" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AM61" s="0" t="s">
-        <v>104</v>
+      <c r="AM61" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN61" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AO61" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP61" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP61" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ61" s="0" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>8187</v>
@@ -8805,28 +9001,31 @@
       <c r="AL62" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM62" s="0" t="s">
-        <v>122</v>
+      <c r="AM62" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN62" s="0" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AO62" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP62" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP62" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ62" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>10000</v>
@@ -8933,28 +9132,31 @@
       <c r="AL63" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM63" s="0" t="s">
-        <v>101</v>
+      <c r="AM63" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN63" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AO63" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP63" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP63" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ63" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>12631</v>
@@ -9061,28 +9263,31 @@
       <c r="AL64" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AM64" s="0" t="s">
-        <v>104</v>
+      <c r="AM64" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN64" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AO64" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP64" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP64" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ64" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>9031</v>
@@ -9189,28 +9394,31 @@
       <c r="AL65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AM65" s="0" t="s">
-        <v>65</v>
+      <c r="AM65" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN65" s="0" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="AO65" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP65" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP65" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ65" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>11901</v>
@@ -9317,28 +9525,31 @@
       <c r="AL66" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="AM66" s="0" t="s">
-        <v>126</v>
+      <c r="AM66" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN66" s="0" t="s">
         <v>127</v>
       </c>
       <c r="AO66" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP66" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="AP66" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ66" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>10685</v>
@@ -9445,28 +9656,31 @@
       <c r="AL67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM67" s="0" t="s">
-        <v>108</v>
+      <c r="AM67" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN67" s="0" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AO67" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP67" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AP67" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ67" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>12065</v>
@@ -9573,28 +9787,31 @@
       <c r="AL68" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM68" s="0" t="s">
+      <c r="AM68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN68" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO68" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP68" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="AN68" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO68" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP68" s="0" t="n">
+      <c r="AQ68" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>11207</v>
@@ -9701,28 +9918,31 @@
       <c r="AL69" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM69" s="0" t="s">
-        <v>129</v>
+      <c r="AM69" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN69" s="0" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="AO69" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP69" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP69" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ69" s="0" t="n">
         <v>850</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>18748</v>
@@ -9829,28 +10049,31 @@
       <c r="AL70" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM70" s="0" t="s">
-        <v>131</v>
+      <c r="AM70" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN70" s="0" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="AO70" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP70" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP70" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ70" s="0" t="n">
         <v>1300</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>11654</v>
@@ -9957,28 +10180,31 @@
       <c r="AL71" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM71" s="0" t="s">
-        <v>110</v>
+      <c r="AM71" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN71" s="0" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AO71" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP71" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP71" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ71" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>17076</v>
@@ -10085,28 +10311,31 @@
       <c r="AL72" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM72" s="0" t="s">
-        <v>136</v>
+      <c r="AM72" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN72" s="0" t="s">
         <v>137</v>
       </c>
       <c r="AO72" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP72" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP72" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>16000</v>
@@ -10213,28 +10442,31 @@
       <c r="AL73" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM73" s="0" t="s">
-        <v>136</v>
+      <c r="AM73" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN73" s="0" t="s">
         <v>137</v>
       </c>
       <c r="AO73" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP73" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP73" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17436</v>
@@ -10341,28 +10573,31 @@
       <c r="AL74" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM74" s="0" t="s">
-        <v>136</v>
+      <c r="AM74" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN74" s="0" t="s">
         <v>137</v>
       </c>
       <c r="AO74" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP74" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP74" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>17530</v>
@@ -10469,28 +10704,31 @@
       <c r="AL75" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM75" s="0" t="s">
-        <v>79</v>
+      <c r="AM75" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN75" s="0" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AO75" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP75" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP75" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>16226</v>
@@ -10597,8 +10835,8 @@
       <c r="AL76" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM76" s="0" t="s">
-        <v>138</v>
+      <c r="AM76" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN76" s="0" t="s">
         <v>139</v>
@@ -10606,19 +10844,22 @@
       <c r="AO76" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="AP76" s="0" t="n">
+      <c r="AP76" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ76" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>17349</v>
@@ -10725,28 +10966,31 @@
       <c r="AL77" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM77" s="0" t="s">
-        <v>138</v>
+      <c r="AM77" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN77" s="0" t="s">
         <v>139</v>
       </c>
       <c r="AO77" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP77" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AP77" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ77" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>15724</v>
@@ -10853,28 +11097,31 @@
       <c r="AL78" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM78" s="0" t="s">
-        <v>138</v>
+      <c r="AM78" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN78" s="0" t="s">
         <v>139</v>
       </c>
       <c r="AO78" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP78" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AP78" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ78" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>8083</v>
@@ -10981,28 +11228,31 @@
       <c r="AL79" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM79" s="0" t="s">
+      <c r="AM79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO79" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP79" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="AN79" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO79" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP79" s="0" t="n">
+      <c r="AQ79" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>11637</v>
@@ -11109,8 +11359,8 @@
       <c r="AL80" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM80" s="0" t="s">
-        <v>143</v>
+      <c r="AM80" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN80" s="0" t="s">
         <v>144</v>
@@ -11118,19 +11368,22 @@
       <c r="AO80" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="AP80" s="0" t="n">
+      <c r="AP80" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ80" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>12384</v>
@@ -11237,28 +11490,31 @@
       <c r="AL81" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM81" s="0" t="s">
-        <v>146</v>
+      <c r="AM81" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN81" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO81" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="AP81" s="0" t="n">
+      <c r="AP81" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ81" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>11126</v>
@@ -11365,28 +11621,31 @@
       <c r="AL82" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM82" s="0" t="s">
-        <v>147</v>
+      <c r="AM82" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN82" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AO82" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="AP82" s="0" t="n">
+      <c r="AP82" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ82" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>11709</v>
@@ -11493,28 +11752,31 @@
       <c r="AL83" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM83" s="0" t="s">
-        <v>147</v>
+      <c r="AM83" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN83" s="0" t="s">
         <v>148</v>
       </c>
       <c r="AO83" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP83" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="AP83" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ83" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>11550</v>
@@ -11621,28 +11883,31 @@
       <c r="AL84" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM84" s="0" t="s">
-        <v>147</v>
+      <c r="AM84" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN84" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AO84" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP84" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="AP84" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ84" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>12488</v>
@@ -11749,8 +12014,8 @@
       <c r="AL85" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM85" s="0" t="s">
-        <v>147</v>
+      <c r="AM85" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN85" s="0" t="s">
         <v>148</v>
@@ -11758,19 +12023,22 @@
       <c r="AO85" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="AP85" s="0" t="n">
+      <c r="AP85" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ85" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>12313</v>
@@ -11877,8 +12145,8 @@
       <c r="AL86" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM86" s="0" t="s">
-        <v>147</v>
+      <c r="AM86" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN86" s="0" t="s">
         <v>148</v>
@@ -11886,19 +12154,22 @@
       <c r="AO86" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="AP86" s="0" t="n">
+      <c r="AP86" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ86" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>10118</v>
@@ -12005,28 +12276,31 @@
       <c r="AL87" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM87" s="0" t="s">
-        <v>57</v>
+      <c r="AM87" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN87" s="0" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="AO87" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="AP87" s="0" t="n">
+      <c r="AP87" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ87" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>11540</v>
@@ -12133,28 +12407,31 @@
       <c r="AL88" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM88" s="0" t="s">
-        <v>147</v>
+      <c r="AM88" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN88" s="0" t="s">
         <v>148</v>
       </c>
       <c r="AO88" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP88" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="AP88" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ88" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>18294</v>
@@ -12261,28 +12538,31 @@
       <c r="AL89" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM89" s="0" t="s">
-        <v>136</v>
+      <c r="AM89" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN89" s="0" t="s">
         <v>137</v>
       </c>
       <c r="AO89" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP89" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP89" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ89" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>18051</v>
@@ -12389,28 +12669,31 @@
       <c r="AL90" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM90" s="0" t="s">
-        <v>136</v>
+      <c r="AM90" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN90" s="0" t="s">
         <v>137</v>
       </c>
       <c r="AO90" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP90" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP90" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ90" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>11140</v>
@@ -12517,28 +12800,31 @@
       <c r="AL91" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM91" s="0" t="s">
-        <v>77</v>
+      <c r="AM91" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN91" s="0" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AO91" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP91" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="AP91" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ91" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>11044</v>
@@ -12645,28 +12931,31 @@
       <c r="AL92" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM92" s="0" t="s">
-        <v>77</v>
+      <c r="AM92" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN92" s="0" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AO92" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP92" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="AP92" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ92" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>13022</v>
@@ -12773,28 +13062,31 @@
       <c r="AL93" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM93" s="0" t="s">
-        <v>146</v>
+      <c r="AM93" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN93" s="0" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="AO93" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP93" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AP93" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ93" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>12045</v>
@@ -12901,28 +13193,31 @@
       <c r="AL94" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM94" s="0" t="s">
+      <c r="AM94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN94" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO94" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP94" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="AN94" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO94" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP94" s="0" t="n">
+      <c r="AQ94" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>11463</v>
@@ -13029,28 +13324,31 @@
       <c r="AL95" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM95" s="0" t="s">
-        <v>147</v>
+      <c r="AM95" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN95" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AO95" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP95" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AP95" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ95" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12120</v>
@@ -13157,28 +13455,31 @@
       <c r="AL96" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM96" s="0" t="s">
-        <v>147</v>
+      <c r="AM96" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN96" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AO96" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP96" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AP96" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ96" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>11662</v>
@@ -13285,28 +13586,31 @@
       <c r="AL97" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM97" s="0" t="s">
-        <v>147</v>
+      <c r="AM97" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN97" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AO97" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP97" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AP97" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ97" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>8151</v>
@@ -13413,28 +13717,31 @@
       <c r="AL98" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM98" s="0" t="s">
-        <v>156</v>
+      <c r="AM98" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN98" s="0" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="AO98" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP98" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AP98" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ98" s="0" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>11234</v>
@@ -13541,28 +13848,31 @@
       <c r="AL99" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM99" s="0" t="s">
-        <v>154</v>
+      <c r="AM99" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN99" s="0" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="AO99" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP99" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP99" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ99" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>12132</v>
@@ -13669,28 +13979,31 @@
       <c r="AL100" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM100" s="0" t="s">
-        <v>146</v>
+      <c r="AM100" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN100" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AO100" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP100" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP100" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ100" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>11424</v>
@@ -13797,28 +14110,31 @@
       <c r="AL101" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM101" s="0" t="s">
-        <v>147</v>
+      <c r="AM101" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN101" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AO101" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP101" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AP101" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ101" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>11611</v>
@@ -13925,28 +14241,31 @@
       <c r="AL102" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM102" s="0" t="s">
-        <v>143</v>
+      <c r="AM102" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN102" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO102" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP102" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP102" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ102" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>12272</v>
@@ -14053,28 +14372,31 @@
       <c r="AL103" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM103" s="0" t="s">
-        <v>146</v>
+      <c r="AM103" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN103" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO103" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP103" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP103" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ103" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>10916</v>
@@ -14181,28 +14503,31 @@
       <c r="AL104" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM104" s="0" t="s">
-        <v>147</v>
+      <c r="AM104" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN104" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO104" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP104" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP104" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ104" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>11845</v>
@@ -14309,28 +14634,31 @@
       <c r="AL105" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM105" s="0" t="s">
-        <v>147</v>
+      <c r="AM105" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN105" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO105" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP105" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP105" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ105" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>11215</v>
@@ -14437,28 +14765,31 @@
       <c r="AL106" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM106" s="0" t="s">
-        <v>146</v>
+      <c r="AM106" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN106" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO106" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP106" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP106" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ106" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>10975</v>
@@ -14565,28 +14896,31 @@
       <c r="AL107" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM107" s="0" t="s">
-        <v>146</v>
+      <c r="AM107" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN107" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO107" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP107" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP107" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ107" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>10580</v>
@@ -14693,28 +15027,31 @@
       <c r="AL108" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM108" s="0" t="s">
-        <v>146</v>
+      <c r="AM108" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN108" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO108" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP108" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP108" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ108" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>9936</v>
@@ -14821,28 +15158,31 @@
       <c r="AL109" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM109" s="0" t="s">
-        <v>146</v>
+      <c r="AM109" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN109" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO109" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP109" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP109" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ109" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>11804</v>
@@ -14949,28 +15289,31 @@
       <c r="AL110" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM110" s="0" t="s">
-        <v>146</v>
+      <c r="AM110" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN110" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO110" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP110" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP110" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ110" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>11754</v>
@@ -15077,28 +15420,31 @@
       <c r="AL111" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM111" s="0" t="s">
-        <v>146</v>
+      <c r="AM111" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN111" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO111" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP111" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP111" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ111" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>11676</v>
@@ -15205,28 +15551,31 @@
       <c r="AL112" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM112" s="0" t="s">
-        <v>146</v>
+      <c r="AM112" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN112" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO112" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP112" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP112" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ112" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>11603</v>
@@ -15333,28 +15682,31 @@
       <c r="AL113" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM113" s="0" t="s">
-        <v>146</v>
+      <c r="AM113" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN113" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO113" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP113" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP113" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ113" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11516</v>
@@ -15461,28 +15813,31 @@
       <c r="AL114" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM114" s="0" t="s">
-        <v>146</v>
+      <c r="AM114" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN114" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO114" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP114" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP114" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ114" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>11390</v>
@@ -15589,28 +15944,31 @@
       <c r="AL115" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM115" s="0" t="s">
-        <v>146</v>
+      <c r="AM115" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN115" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO115" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP115" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP115" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ115" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>11845</v>
@@ -15717,28 +16075,31 @@
       <c r="AL116" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM116" s="0" t="s">
-        <v>146</v>
+      <c r="AM116" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN116" s="0" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AO116" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP116" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP116" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ116" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>11051</v>
@@ -15845,28 +16206,31 @@
       <c r="AL117" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM117" s="0" t="s">
-        <v>143</v>
+      <c r="AM117" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN117" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO117" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP117" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP117" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ117" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>61</v>
+      <c r="C118" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>11017</v>
@@ -15973,28 +16337,31 @@
       <c r="AL118" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM118" s="0" t="s">
-        <v>143</v>
+      <c r="AM118" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN118" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO118" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP118" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP118" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ118" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>10951</v>
@@ -16101,28 +16468,31 @@
       <c r="AL119" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM119" s="0" t="s">
-        <v>143</v>
+      <c r="AM119" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN119" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO119" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP119" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP119" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ119" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>10897</v>
@@ -16229,28 +16599,31 @@
       <c r="AL120" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM120" s="0" t="s">
-        <v>143</v>
+      <c r="AM120" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN120" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO120" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP120" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP120" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ120" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>10825</v>
@@ -16357,28 +16730,31 @@
       <c r="AL121" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM121" s="0" t="s">
-        <v>143</v>
+      <c r="AM121" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN121" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO121" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP121" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP121" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ121" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>10762</v>
@@ -16485,28 +16861,31 @@
       <c r="AL122" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM122" s="0" t="s">
-        <v>143</v>
+      <c r="AM122" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN122" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO122" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP122" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP122" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ122" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>10684</v>
@@ -16613,28 +16992,31 @@
       <c r="AL123" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM123" s="0" t="s">
-        <v>143</v>
+      <c r="AM123" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN123" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO123" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP123" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP123" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ123" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10552</v>
@@ -16741,28 +17123,31 @@
       <c r="AL124" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM124" s="0" t="s">
-        <v>143</v>
+      <c r="AM124" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN124" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="AO124" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP124" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP124" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ124" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>10693</v>
@@ -16869,28 +17254,31 @@
       <c r="AL125" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM125" s="0" t="s">
-        <v>147</v>
+      <c r="AM125" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN125" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO125" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP125" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP125" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ125" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>10641</v>
@@ -16997,28 +17385,31 @@
       <c r="AL126" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM126" s="0" t="s">
-        <v>147</v>
+      <c r="AM126" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN126" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO126" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP126" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP126" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ126" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>10541</v>
@@ -17125,28 +17516,31 @@
       <c r="AL127" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM127" s="0" t="s">
-        <v>147</v>
+      <c r="AM127" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN127" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO127" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP127" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP127" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ127" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>10429</v>
@@ -17253,28 +17647,31 @@
       <c r="AL128" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM128" s="0" t="s">
-        <v>147</v>
+      <c r="AM128" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN128" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO128" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP128" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP128" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ128" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>10301</v>
@@ -17381,28 +17778,31 @@
       <c r="AL129" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM129" s="0" t="s">
-        <v>147</v>
+      <c r="AM129" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN129" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO129" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP129" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP129" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ129" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>10203</v>
@@ -17509,28 +17909,31 @@
       <c r="AL130" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM130" s="0" t="s">
-        <v>147</v>
+      <c r="AM130" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN130" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO130" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP130" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP130" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ130" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>10237</v>
@@ -17637,28 +18040,31 @@
       <c r="AL131" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM131" s="0" t="s">
-        <v>147</v>
+      <c r="AM131" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN131" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO131" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP131" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP131" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ131" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>10872</v>
@@ -17765,28 +18171,31 @@
       <c r="AL132" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM132" s="0" t="s">
-        <v>147</v>
+      <c r="AM132" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN132" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO132" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP132" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP132" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ132" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>12042</v>
@@ -17893,28 +18302,31 @@
       <c r="AL133" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM133" s="0" t="s">
-        <v>146</v>
+      <c r="AM133" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN133" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AO133" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP133" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP133" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ133" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>11942</v>
@@ -18021,28 +18433,31 @@
       <c r="AL134" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM134" s="0" t="s">
-        <v>146</v>
+      <c r="AM134" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN134" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AO134" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP134" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP134" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ134" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>11799</v>
@@ -18149,28 +18564,31 @@
       <c r="AL135" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM135" s="0" t="s">
-        <v>146</v>
+      <c r="AM135" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN135" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AO135" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP135" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP135" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ135" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>11547</v>
@@ -18277,28 +18695,31 @@
       <c r="AL136" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM136" s="0" t="s">
-        <v>146</v>
+      <c r="AM136" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN136" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AO136" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP136" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP136" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ136" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>10977</v>
@@ -18405,28 +18826,31 @@
       <c r="AL137" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM137" s="0" t="s">
-        <v>146</v>
+      <c r="AM137" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN137" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AO137" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP137" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP137" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ137" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>11179</v>
@@ -18533,28 +18957,31 @@
       <c r="AL138" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM138" s="0" t="s">
-        <v>143</v>
+      <c r="AM138" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN138" s="0" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="AO138" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP138" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP138" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ138" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>11074</v>
@@ -18661,28 +19088,31 @@
       <c r="AL139" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM139" s="0" t="s">
-        <v>143</v>
+      <c r="AM139" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN139" s="0" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="AO139" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP139" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP139" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ139" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>11007</v>
@@ -18789,28 +19219,31 @@
       <c r="AL140" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM140" s="0" t="s">
-        <v>143</v>
+      <c r="AM140" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN140" s="0" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="AO140" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP140" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP140" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ140" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>10754</v>
@@ -18917,28 +19350,31 @@
       <c r="AL141" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM141" s="0" t="s">
-        <v>143</v>
+      <c r="AM141" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN141" s="0" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="AO141" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP141" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP141" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ141" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>10349</v>
@@ -19045,28 +19481,31 @@
       <c r="AL142" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM142" s="0" t="s">
-        <v>143</v>
+      <c r="AM142" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN142" s="0" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="AO142" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP142" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP142" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ142" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>10855</v>
@@ -19173,28 +19612,31 @@
       <c r="AL143" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM143" s="0" t="s">
-        <v>147</v>
+      <c r="AM143" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN143" s="0" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AO143" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP143" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP143" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ143" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>10648</v>
@@ -19301,28 +19743,31 @@
       <c r="AL144" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM144" s="0" t="s">
-        <v>147</v>
+      <c r="AM144" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN144" s="0" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AO144" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP144" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP144" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ144" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>10373</v>
@@ -19429,28 +19874,31 @@
       <c r="AL145" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM145" s="0" t="s">
-        <v>147</v>
+      <c r="AM145" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN145" s="0" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AO145" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP145" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP145" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ145" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>10323</v>
@@ -19557,28 +20005,31 @@
       <c r="AL146" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM146" s="0" t="s">
-        <v>147</v>
+      <c r="AM146" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN146" s="0" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AO146" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP146" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP146" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ146" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>11021</v>
@@ -19685,28 +20136,31 @@
       <c r="AL147" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM147" s="0" t="s">
-        <v>147</v>
+      <c r="AM147" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN147" s="0" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AO147" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP147" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP147" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ147" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>0</v>
@@ -19813,28 +20267,31 @@
       <c r="AL148" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM148" s="0" t="s">
-        <v>156</v>
+      <c r="AM148" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN148" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AO148" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="AP148" s="0" t="n">
+      <c r="AP148" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ148" s="0" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>14209</v>
@@ -19941,28 +20398,31 @@
       <c r="AL149" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM149" s="0" t="s">
-        <v>166</v>
+      <c r="AM149" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN149" s="0" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="AO149" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP149" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP149" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ149" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>13465</v>
@@ -20069,28 +20529,31 @@
       <c r="AL150" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM150" s="0" t="s">
-        <v>166</v>
+      <c r="AM150" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN150" s="0" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="AO150" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP150" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP150" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ150" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>13490</v>
@@ -20197,28 +20660,31 @@
       <c r="AL151" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM151" s="0" t="s">
-        <v>166</v>
+      <c r="AM151" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN151" s="0" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="AO151" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP151" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP151" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ151" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>14224</v>
@@ -20325,28 +20791,31 @@
       <c r="AL152" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM152" s="0" t="s">
-        <v>166</v>
+      <c r="AM152" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN152" s="0" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="AO152" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP152" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP152" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ152" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>13478</v>
@@ -20453,28 +20922,31 @@
       <c r="AL153" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM153" s="0" t="s">
-        <v>53</v>
+      <c r="AM153" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN153" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AO153" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP153" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP153" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ153" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>12968</v>
@@ -20581,28 +21053,31 @@
       <c r="AL154" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM154" s="0" t="s">
+      <c r="AM154" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN154" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO154" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP154" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="AN154" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO154" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP154" s="0" t="n">
+      <c r="AQ154" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>13398</v>
@@ -20709,28 +21184,31 @@
       <c r="AL155" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM155" s="0" t="s">
-        <v>53</v>
+      <c r="AM155" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN155" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AO155" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP155" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP155" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ155" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>13388</v>
@@ -20837,28 +21315,31 @@
       <c r="AL156" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM156" s="0" t="s">
-        <v>166</v>
+      <c r="AM156" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN156" s="0" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="AO156" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP156" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP156" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ156" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>14071</v>
@@ -20965,28 +21446,31 @@
       <c r="AL157" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM157" s="0" t="s">
-        <v>166</v>
+      <c r="AM157" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN157" s="0" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="AO157" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP157" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP157" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ157" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>12212</v>
@@ -21093,28 +21577,31 @@
       <c r="AL158" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="AM158" s="0" t="s">
-        <v>171</v>
+      <c r="AM158" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN158" s="0" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="AO158" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP158" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP158" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ158" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>10700</v>
@@ -21221,28 +21708,31 @@
       <c r="AL159" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM159" s="0" t="s">
-        <v>108</v>
+      <c r="AM159" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN159" s="0" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="AO159" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP159" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP159" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ159" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>10653</v>
@@ -21349,28 +21839,31 @@
       <c r="AL160" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="AM160" s="0" t="s">
-        <v>171</v>
+      <c r="AM160" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN160" s="0" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="AO160" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP160" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP160" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ160" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>5316</v>
@@ -21477,28 +21970,31 @@
       <c r="AL161" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="AM161" s="0" t="s">
-        <v>174</v>
+      <c r="AM161" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN161" s="0" t="s">
         <v>175</v>
       </c>
       <c r="AO161" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP161" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="AP161" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ161" s="0" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>5555</v>
@@ -21605,28 +22101,31 @@
       <c r="AL162" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="AM162" s="0" t="s">
-        <v>174</v>
+      <c r="AM162" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN162" s="0" t="s">
         <v>175</v>
       </c>
       <c r="AO162" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP162" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="AP162" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ162" s="0" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>10261</v>
@@ -21733,28 +22232,31 @@
       <c r="AL163" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM163" s="0" t="s">
-        <v>110</v>
+      <c r="AM163" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN163" s="0" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AO163" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP163" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP163" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ163" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>12167</v>
@@ -21861,28 +22363,31 @@
       <c r="AL164" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM164" s="0" t="s">
-        <v>177</v>
+      <c r="AM164" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN164" s="0" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="AO164" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP164" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP164" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ164" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>14365</v>
@@ -21989,28 +22494,31 @@
       <c r="AL165" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM165" s="0" t="s">
-        <v>154</v>
+      <c r="AM165" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN165" s="0" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="AO165" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP165" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP165" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ165" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>12385</v>
@@ -22117,28 +22625,31 @@
       <c r="AL166" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM166" s="0" t="s">
-        <v>111</v>
+      <c r="AM166" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN166" s="0" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AO166" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP166" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP166" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ166" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>13481</v>
@@ -22245,28 +22756,31 @@
       <c r="AL167" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM167" s="0" t="s">
-        <v>53</v>
+      <c r="AM167" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN167" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AO167" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP167" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP167" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ167" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>13064</v>
@@ -22373,28 +22887,31 @@
       <c r="AL168" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM168" s="0" t="s">
-        <v>169</v>
+      <c r="AM168" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN168" s="0" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="AO168" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP168" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP168" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ168" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>12198</v>
@@ -22501,28 +23018,31 @@
       <c r="AL169" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM169" s="0" t="s">
-        <v>169</v>
+      <c r="AM169" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN169" s="0" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="AO169" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP169" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP169" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ169" s="0" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>12296</v>
@@ -22629,28 +23149,31 @@
       <c r="AL170" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM170" s="0" t="s">
-        <v>110</v>
+      <c r="AM170" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN170" s="0" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="AO170" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP170" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP170" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ170" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>19422</v>
@@ -22757,28 +23280,31 @@
       <c r="AL171" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM171" s="0" t="s">
-        <v>44</v>
+      <c r="AM171" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN171" s="0" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AO171" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP171" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AP171" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ171" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>18555</v>
@@ -22885,28 +23411,31 @@
       <c r="AL172" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM172" s="0" t="s">
-        <v>44</v>
+      <c r="AM172" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN172" s="0" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AO172" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP172" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AP172" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ172" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>22467</v>
@@ -23013,28 +23542,31 @@
       <c r="AL173" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM173" s="0" t="s">
-        <v>93</v>
+      <c r="AM173" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN173" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AO173" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP173" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP173" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ173" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>22877</v>
@@ -23141,28 +23673,31 @@
       <c r="AL174" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM174" s="0" t="s">
-        <v>93</v>
+      <c r="AM174" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN174" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AO174" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP174" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP174" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ174" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>22642</v>
@@ -23269,28 +23804,31 @@
       <c r="AL175" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM175" s="0" t="s">
-        <v>93</v>
+      <c r="AM175" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN175" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AO175" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP175" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP175" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ175" s="0" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>23082</v>
@@ -23397,28 +23935,31 @@
       <c r="AL176" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM176" s="0" t="s">
-        <v>93</v>
+      <c r="AM176" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN176" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AO176" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP176" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP176" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ176" s="0" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>20176</v>
@@ -23525,28 +24066,31 @@
       <c r="AL177" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM177" s="0" t="s">
-        <v>44</v>
+      <c r="AM177" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN177" s="0" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AO177" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP177" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AP177" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ177" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>19149</v>
@@ -23653,28 +24197,31 @@
       <c r="AL178" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM178" s="0" t="s">
-        <v>44</v>
+      <c r="AM178" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN178" s="0" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AO178" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP178" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AP178" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ178" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>23191</v>
@@ -23781,28 +24328,31 @@
       <c r="AL179" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM179" s="0" t="s">
-        <v>93</v>
+      <c r="AM179" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN179" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AO179" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP179" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP179" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ179" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>22879</v>
@@ -23909,28 +24459,31 @@
       <c r="AL180" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM180" s="0" t="s">
-        <v>93</v>
+      <c r="AM180" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN180" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AO180" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP180" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP180" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ180" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>23428</v>
@@ -24037,28 +24590,31 @@
       <c r="AL181" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM181" s="0" t="s">
-        <v>93</v>
+      <c r="AM181" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN181" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AO181" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP181" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP181" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ181" s="0" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>22903</v>
@@ -24165,28 +24721,31 @@
       <c r="AL182" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM182" s="0" t="s">
-        <v>93</v>
+      <c r="AM182" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN182" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AO182" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP182" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP182" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ182" s="0" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>12377</v>
@@ -24293,28 +24852,31 @@
       <c r="AL183" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM183" s="0" t="s">
-        <v>111</v>
+      <c r="AM183" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN183" s="0" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AO183" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP183" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP183" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ183" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>11756</v>
@@ -24421,28 +24983,31 @@
       <c r="AL184" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM184" s="0" t="s">
-        <v>169</v>
+      <c r="AM184" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN184" s="0" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="AO184" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP184" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP184" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ184" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>11472</v>
@@ -24549,28 +25114,31 @@
       <c r="AL185" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM185" s="0" t="s">
-        <v>169</v>
+      <c r="AM185" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN185" s="0" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="AO185" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP185" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP185" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ185" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>10738</v>
@@ -24677,28 +25245,31 @@
       <c r="AL186" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM186" s="0" t="s">
-        <v>169</v>
+      <c r="AM186" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN186" s="0" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="AO186" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP186" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP186" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ186" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>12295</v>
@@ -24805,28 +25376,31 @@
       <c r="AL187" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM187" s="0" t="s">
-        <v>111</v>
+      <c r="AM187" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN187" s="0" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="AO187" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP187" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP187" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ187" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>11538</v>
@@ -24933,28 +25507,31 @@
       <c r="AL188" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM188" s="0" t="s">
-        <v>169</v>
+      <c r="AM188" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN188" s="0" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="AO188" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP188" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP188" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ188" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>10273</v>
@@ -25061,28 +25638,31 @@
       <c r="AL189" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AM189" s="0" t="s">
-        <v>65</v>
+      <c r="AM189" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN189" s="0" t="s">
         <v>66</v>
       </c>
       <c r="AO189" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP189" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP189" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ189" s="0" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>11870</v>
@@ -25189,28 +25769,31 @@
       <c r="AL190" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM190" s="0" t="s">
-        <v>169</v>
+      <c r="AM190" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN190" s="0" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="AO190" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP190" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP190" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ190" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>12091</v>
@@ -25317,28 +25900,31 @@
       <c r="AL191" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM191" s="0" t="s">
-        <v>169</v>
+      <c r="AM191" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN191" s="0" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="AO191" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP191" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP191" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ191" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>11406</v>
@@ -25445,28 +26031,31 @@
       <c r="AL192" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM192" s="0" t="s">
-        <v>177</v>
+      <c r="AM192" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN192" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO192" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP192" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="AO192" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP192" s="0" t="n">
+      <c r="AQ192" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>12336</v>
@@ -25573,28 +26162,31 @@
       <c r="AL193" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM193" s="0" t="s">
-        <v>177</v>
+      <c r="AM193" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN193" s="0" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="AO193" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP193" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP193" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ193" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>11631</v>
@@ -25701,28 +26293,31 @@
       <c r="AL194" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM194" s="0" t="s">
+      <c r="AM194" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN194" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO194" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="AN194" s="0" t="s">
+      <c r="AP194" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="AO194" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP194" s="0" t="n">
+      <c r="AQ194" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>13357</v>
@@ -25829,28 +26424,31 @@
       <c r="AL195" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM195" s="0" t="s">
-        <v>111</v>
+      <c r="AM195" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN195" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AO195" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP195" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP195" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ195" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>13010</v>
@@ -25957,28 +26555,31 @@
       <c r="AL196" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM196" s="0" t="s">
-        <v>177</v>
+      <c r="AM196" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN196" s="0" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="AO196" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP196" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP196" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ196" s="0" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>13154</v>
@@ -26085,28 +26686,31 @@
       <c r="AL197" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM197" s="0" t="s">
-        <v>192</v>
+      <c r="AM197" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN197" s="0" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="AO197" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP197" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP197" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ197" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>12886</v>
@@ -26213,28 +26817,31 @@
       <c r="AL198" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM198" s="0" t="s">
-        <v>111</v>
+      <c r="AM198" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN198" s="0" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="AO198" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP198" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="AP198" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ198" s="0" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>12377</v>
@@ -26341,28 +26948,31 @@
       <c r="AL199" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM199" s="0" t="s">
-        <v>169</v>
+      <c r="AM199" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN199" s="0" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="AO199" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="AP199" s="0" t="n">
+      <c r="AP199" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ199" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>11047</v>
@@ -26469,28 +27079,31 @@
       <c r="AL200" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM200" s="0" t="s">
-        <v>147</v>
+      <c r="AM200" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN200" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO200" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP200" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP200" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ200" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>11066</v>
@@ -26597,28 +27210,31 @@
       <c r="AL201" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM201" s="0" t="s">
-        <v>147</v>
+      <c r="AM201" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN201" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO201" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP201" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP201" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ201" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>10954</v>
@@ -26725,28 +27341,31 @@
       <c r="AL202" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM202" s="0" t="s">
-        <v>147</v>
+      <c r="AM202" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN202" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO202" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP202" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP202" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ202" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>11000</v>
@@ -26853,28 +27472,31 @@
       <c r="AL203" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM203" s="0" t="s">
-        <v>147</v>
+      <c r="AM203" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN203" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO203" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP203" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP203" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ203" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>11001</v>
@@ -26981,28 +27603,31 @@
       <c r="AL204" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM204" s="0" t="s">
-        <v>147</v>
+      <c r="AM204" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN204" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO204" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP204" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP204" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ204" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>10996</v>
@@ -27109,28 +27734,31 @@
       <c r="AL205" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM205" s="0" t="s">
-        <v>147</v>
+      <c r="AM205" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN205" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO205" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP205" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP205" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ205" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>11046</v>
@@ -27237,28 +27865,31 @@
       <c r="AL206" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM206" s="0" t="s">
-        <v>147</v>
+      <c r="AM206" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN206" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO206" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP206" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP206" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ206" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>10820</v>
@@ -27365,28 +27996,31 @@
       <c r="AL207" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM207" s="0" t="s">
-        <v>147</v>
+      <c r="AM207" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN207" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO207" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP207" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP207" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ207" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>10780</v>
@@ -27493,28 +28127,31 @@
       <c r="AL208" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM208" s="0" t="s">
-        <v>147</v>
+      <c r="AM208" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN208" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO208" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP208" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP208" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ208" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>13107</v>
@@ -27621,28 +28258,31 @@
       <c r="AL209" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM209" s="0" t="s">
-        <v>197</v>
+      <c r="AM209" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN209" s="0" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="AO209" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP209" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP209" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ209" s="0" t="n">
         <v>850</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>12190</v>
@@ -27749,28 +28389,31 @@
       <c r="AL210" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM210" s="0" t="s">
-        <v>147</v>
+      <c r="AM210" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN210" s="0" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="AO210" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP210" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP210" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ210" s="0" t="n">
         <v>850</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>12747</v>
@@ -27877,28 +28520,31 @@
       <c r="AL211" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM211" s="0" t="s">
-        <v>197</v>
+      <c r="AM211" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN211" s="0" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="AO211" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP211" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP211" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ211" s="0" t="n">
         <v>850</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>11964</v>
@@ -28005,28 +28651,31 @@
       <c r="AL212" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM212" s="0" t="s">
-        <v>147</v>
+      <c r="AM212" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN212" s="0" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="AO212" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP212" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP212" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ212" s="0" t="n">
         <v>850</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>12368</v>
@@ -28133,8 +28782,8 @@
       <c r="AL213" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM213" s="0" t="s">
-        <v>199</v>
+      <c r="AM213" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN213" s="0" t="s">
         <v>200</v>
@@ -28142,19 +28791,22 @@
       <c r="AO213" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="AP213" s="0" t="n">
+      <c r="AP213" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ213" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>6183</v>
@@ -28261,28 +28913,31 @@
       <c r="AL214" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="AM214" s="0" t="s">
-        <v>203</v>
+      <c r="AM214" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN214" s="0" t="s">
         <v>204</v>
       </c>
       <c r="AO214" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP214" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="AP214" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ214" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>11568</v>
@@ -28389,28 +29044,31 @@
       <c r="AL215" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM215" s="0" t="s">
-        <v>110</v>
+      <c r="AM215" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN215" s="0" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AO215" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP215" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP215" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ215" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>12047</v>
@@ -28517,28 +29175,31 @@
       <c r="AL216" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM216" s="0" t="s">
-        <v>147</v>
+      <c r="AM216" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN216" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AO216" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="AP216" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP216" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ216" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>13613</v>
@@ -28645,28 +29306,31 @@
       <c r="AL217" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM217" s="0" t="s">
+      <c r="AM217" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN217" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO217" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP217" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="AN217" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO217" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="AP217" s="0" t="n">
+      <c r="AQ217" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>12801</v>
@@ -28773,28 +29437,31 @@
       <c r="AL218" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM218" s="0" t="s">
-        <v>209</v>
+      <c r="AM218" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN218" s="0" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AO218" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP218" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP218" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ218" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>12438</v>
@@ -28901,28 +29568,31 @@
       <c r="AL219" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM219" s="0" t="s">
-        <v>53</v>
+      <c r="AM219" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN219" s="0" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="AO219" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="AP219" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP219" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ219" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>7908</v>
@@ -29029,28 +29699,31 @@
       <c r="AL220" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM220" s="0" t="s">
-        <v>211</v>
+      <c r="AM220" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN220" s="0" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="AO220" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP220" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP220" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ220" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>11444</v>
@@ -29157,28 +29830,31 @@
       <c r="AL221" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM221" s="0" t="s">
-        <v>169</v>
+      <c r="AM221" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN221" s="0" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="AO221" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP221" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP221" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ221" s="0" t="n">
         <v>2200</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>10831</v>
@@ -29285,28 +29961,31 @@
       <c r="AL222" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM222" s="0" t="s">
-        <v>129</v>
+      <c r="AM222" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN222" s="0" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="AO222" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP222" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP222" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ222" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>6507</v>
@@ -29413,28 +30092,31 @@
       <c r="AL223" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="AM223" s="0" t="s">
-        <v>216</v>
+      <c r="AM223" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN223" s="0" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="AO223" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP223" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP223" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ223" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>9248</v>
@@ -29541,28 +30223,31 @@
       <c r="AL224" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM224" s="0" t="s">
+      <c r="AM224" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN224" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO224" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP224" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="AN224" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO224" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP224" s="0" t="n">
+      <c r="AQ224" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>8079</v>
@@ -29669,28 +30354,31 @@
       <c r="AL225" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="AM225" s="0" t="s">
-        <v>219</v>
+      <c r="AM225" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN225" s="0" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="AO225" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP225" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP225" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ225" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>9230</v>
@@ -29797,28 +30485,31 @@
       <c r="AL226" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM226" s="0" t="s">
-        <v>220</v>
+      <c r="AM226" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN226" s="0" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="AO226" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP226" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP226" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ226" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>9825</v>
@@ -29925,28 +30616,31 @@
       <c r="AL227" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AM227" s="0" t="s">
-        <v>221</v>
+      <c r="AM227" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN227" s="0" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="AO227" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP227" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP227" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ227" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>12306</v>
@@ -30053,28 +30747,31 @@
       <c r="AL228" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM228" s="0" t="s">
-        <v>53</v>
+      <c r="AM228" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN228" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AO228" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP228" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP228" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ228" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>10255</v>
@@ -30181,28 +30878,31 @@
       <c r="AL229" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="AM229" s="0" t="s">
-        <v>222</v>
+      <c r="AM229" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN229" s="0" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="AO229" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP229" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP229" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ229" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>9939</v>
@@ -30309,28 +31009,31 @@
       <c r="AL230" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM230" s="0" t="s">
-        <v>57</v>
+      <c r="AM230" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN230" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AO230" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="AP230" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP230" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ230" s="0" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>11573</v>
@@ -30437,28 +31140,31 @@
       <c r="AL231" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM231" s="0" t="s">
-        <v>224</v>
+      <c r="AM231" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN231" s="0" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="AO231" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="AP231" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP231" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ231" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>8004</v>
@@ -30565,28 +31271,31 @@
       <c r="AL232" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM232" s="0" t="s">
-        <v>108</v>
+      <c r="AM232" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN232" s="0" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="AO232" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="AP232" s="0" t="n">
+      <c r="AP232" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ232" s="0" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>12265</v>
@@ -30693,28 +31402,31 @@
       <c r="AL233" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM233" s="0" t="s">
-        <v>197</v>
+      <c r="AM233" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN233" s="0" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="AO233" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="AP233" s="0" t="n">
+      <c r="AP233" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ233" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>11960</v>
@@ -30821,28 +31533,31 @@
       <c r="AL234" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="AM234" s="0" t="s">
-        <v>147</v>
+      <c r="AM234" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN234" s="0" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="AO234" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP234" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP234" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ234" s="0" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>0</v>
@@ -30949,28 +31664,31 @@
       <c r="AL235" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM235" s="0" t="s">
-        <v>211</v>
+      <c r="AM235" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN235" s="0" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="AO235" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP235" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP235" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ235" s="0" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D236" s="0" t="n">
         <v>0</v>
@@ -31077,28 +31795,31 @@
       <c r="AL236" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM236" s="0" t="s">
+      <c r="AM236" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN236" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO236" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP236" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="AN236" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO236" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP236" s="0" t="n">
+      <c r="AQ236" s="0" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D237" s="0" t="n">
         <v>0</v>
@@ -31205,28 +31926,31 @@
       <c r="AL237" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AM237" s="0" t="s">
-        <v>211</v>
+      <c r="AM237" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN237" s="0" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="AO237" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP237" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP237" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ237" s="0" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D238" s="0" t="n">
         <v>8274</v>
@@ -31333,8 +32057,8 @@
       <c r="AL238" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AM238" s="0" t="s">
-        <v>235</v>
+      <c r="AM238" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN238" s="0" t="s">
         <v>236</v>
@@ -31342,19 +32066,22 @@
       <c r="AO238" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="AP238" s="0" t="n">
+      <c r="AP238" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ238" s="0" t="n">
         <v>980</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>19391</v>
@@ -31461,28 +32188,31 @@
       <c r="AL239" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AM239" s="0" t="s">
-        <v>238</v>
+      <c r="AM239" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN239" s="0" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="AO239" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP239" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="AP239" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ239" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D240" s="0" t="n">
         <v>10206</v>
@@ -31589,28 +32319,31 @@
       <c r="AL240" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AM240" s="0" t="s">
-        <v>240</v>
+      <c r="AM240" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN240" s="0" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="AO240" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP240" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="AP240" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ240" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D241" s="0" t="n">
         <v>13623</v>
@@ -31717,28 +32450,31 @@
       <c r="AL241" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM241" s="0" t="s">
-        <v>154</v>
+      <c r="AM241" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AN241" s="0" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="AO241" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP241" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP241" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ241" s="0" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D242" s="0" t="n">
         <v>13295</v>
@@ -31845,16 +32581,19 @@
       <c r="AL242" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AM242" s="0" t="s">
+      <c r="AM242" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN242" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO242" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP242" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="AN242" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO242" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP242" s="0" t="n">
+      <c r="AQ242" s="0" t="n">
         <v>800</v>
       </c>
     </row>
